--- a/zib2017-2020/mapping/excel/VermogenTotZichWassen.xlsx
+++ b/zib2017-2020/mapping/excel/VermogenTotZichWassen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>ZibName</t>
   </si>
@@ -598,7 +598,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -608,27 +608,6 @@
       </c>
       <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/zib2017-2020/mapping/excel/VermogenTotZichWassen.xlsx
+++ b/zib2017-2020/mapping/excel/VermogenTotZichWassen.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$4</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -174,7 +177,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -469,6 +501,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -611,6 +650,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O4"/>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>